--- a/RFP.Document/DoctorsExcelFile/Book1(AutoRecovered).xlsx
+++ b/RFP.Document/DoctorsExcelFile/Book1(AutoRecovered).xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ParsaPanahpoor\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Task\BackEnd\DoctorFAM\Asp.net Core\DoctorFAM14010715\DoctorFAM\RFP.Document\DoctorsExcelFile\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05DDA4D2-5764-4B95-B4DD-F423FCB3546A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D032F6A3-29D4-4FD3-B791-227F12848BCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{881ACA9D-08C1-4E78-AEC1-0EE7DE17F4CA}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="13">
   <si>
     <t>parsa</t>
   </si>
@@ -63,6 +63,15 @@
   </si>
   <si>
     <t>09116890030</t>
+  </si>
+  <si>
+    <t>Ashkan</t>
+  </si>
+  <si>
+    <t>Hoseinpor</t>
+  </si>
+  <si>
+    <t>09396891108</t>
   </si>
 </sst>
 </file>
@@ -415,10 +424,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B362568E-081E-4A1D-AA31-2366C402EC7A}">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -499,6 +508,20 @@
         <v>7</v>
       </c>
     </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6">
+        <v>2080847112</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/RFP.Document/DoctorsExcelFile/Book1(AutoRecovered).xlsx
+++ b/RFP.Document/DoctorsExcelFile/Book1(AutoRecovered).xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Task\BackEnd\DoctorFAM\Asp.net Core\DoctorFAM14010715\DoctorFAM\RFP.Document\DoctorsExcelFile\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ParsaPanahpoor\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D032F6A3-29D4-4FD3-B791-227F12848BCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05DDA4D2-5764-4B95-B4DD-F423FCB3546A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{881ACA9D-08C1-4E78-AEC1-0EE7DE17F4CA}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="10">
   <si>
     <t>parsa</t>
   </si>
@@ -63,15 +63,6 @@
   </si>
   <si>
     <t>09116890030</t>
-  </si>
-  <si>
-    <t>Ashkan</t>
-  </si>
-  <si>
-    <t>Hoseinpor</t>
-  </si>
-  <si>
-    <t>09396891108</t>
   </si>
 </sst>
 </file>
@@ -424,10 +415,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B362568E-081E-4A1D-AA31-2366C402EC7A}">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -508,20 +499,6 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6">
-        <v>2080847112</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/RFP.Document/DoctorsExcelFile/Book1(AutoRecovered).xlsx
+++ b/RFP.Document/DoctorsExcelFile/Book1(AutoRecovered).xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ParsaPanahpoor\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Task\BackEnd\DoctorFAM\Asp.net Core\DoctorFAM14010816\14010816\RFP.Document\DoctorsExcelFile\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05DDA4D2-5764-4B95-B4DD-F423FCB3546A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27E1BAFE-D93D-458A-99C0-A1F1A49041EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{881ACA9D-08C1-4E78-AEC1-0EE7DE17F4CA}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="15">
   <si>
     <t>parsa</t>
   </si>
@@ -63,6 +63,21 @@
   </si>
   <si>
     <t>09116890030</t>
+  </si>
+  <si>
+    <t>Ashkan</t>
+  </si>
+  <si>
+    <t>Hosseinpor</t>
+  </si>
+  <si>
+    <t>09113511108</t>
+  </si>
+  <si>
+    <t xml:space="preserve">maryam </t>
+  </si>
+  <si>
+    <t>09113511107</t>
   </si>
 </sst>
 </file>
@@ -415,10 +430,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B362568E-081E-4A1D-AA31-2366C402EC7A}">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -499,6 +514,34 @@
         <v>7</v>
       </c>
     </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6">
+        <v>20808447112</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7">
+        <v>20808447112</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
